--- a/Financials/Yearly/NVO_YR_FIN.xlsx
+++ b/Financials/Yearly/NVO_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291C3B5A-DDB0-4AD0-BFB0-5F8D104E5F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NVO" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>NVO</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17582100</v>
+        <v>16812700</v>
       </c>
       <c r="E8" s="3">
-        <v>17595300</v>
+        <v>16792400</v>
       </c>
       <c r="F8" s="3">
-        <v>16988800</v>
+        <v>16805000</v>
       </c>
       <c r="G8" s="3">
-        <v>13979000</v>
+        <v>16225700</v>
       </c>
       <c r="H8" s="3">
-        <v>13155100</v>
+        <v>13351100</v>
       </c>
       <c r="I8" s="3">
-        <v>12282100</v>
+        <v>12564200</v>
       </c>
       <c r="J8" s="3">
+        <v>11730400</v>
+      </c>
+      <c r="K8" s="3">
         <v>10443500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2775500</v>
+        <v>2648500</v>
       </c>
       <c r="E9" s="3">
-        <v>2704800</v>
+        <v>2650800</v>
       </c>
       <c r="F9" s="3">
-        <v>2548200</v>
+        <v>2583300</v>
       </c>
       <c r="G9" s="3">
-        <v>2292200</v>
+        <v>2433700</v>
       </c>
       <c r="H9" s="3">
-        <v>2225800</v>
+        <v>2189300</v>
       </c>
       <c r="I9" s="3">
-        <v>2119500</v>
+        <v>2125800</v>
       </c>
       <c r="J9" s="3">
+        <v>2024300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1981600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14806600</v>
+        <v>14164100</v>
       </c>
       <c r="E10" s="3">
-        <v>14890500</v>
+        <v>14141600</v>
       </c>
       <c r="F10" s="3">
-        <v>14440600</v>
+        <v>14221700</v>
       </c>
       <c r="G10" s="3">
-        <v>11686700</v>
+        <v>13792000</v>
       </c>
       <c r="H10" s="3">
-        <v>10929300</v>
+        <v>11161800</v>
       </c>
       <c r="I10" s="3">
-        <v>10162500</v>
+        <v>10438400</v>
       </c>
       <c r="J10" s="3">
+        <v>9706100</v>
+      </c>
+      <c r="K10" s="3">
         <v>8461900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2090100</v>
+        <v>2039800</v>
       </c>
       <c r="E12" s="3">
-        <v>2147500</v>
+        <v>1996200</v>
       </c>
       <c r="F12" s="3">
-        <v>2036300</v>
+        <v>2051100</v>
       </c>
       <c r="G12" s="3">
-        <v>2022100</v>
+        <v>1944800</v>
       </c>
       <c r="H12" s="3">
-        <v>1773500</v>
+        <v>1931300</v>
       </c>
       <c r="I12" s="3">
-        <v>1715300</v>
+        <v>1693900</v>
       </c>
       <c r="J12" s="3">
+        <v>1638300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1515500</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>49100</v>
+        <v>-900</v>
       </c>
       <c r="E14" s="3">
-        <v>85300</v>
+        <v>46900</v>
       </c>
       <c r="F14" s="3">
-        <v>-391200</v>
+        <v>81500</v>
       </c>
       <c r="G14" s="3">
-        <v>100600</v>
+        <v>-373600</v>
       </c>
       <c r="H14" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>96100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>21600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>92200</v>
+        <v>192900</v>
       </c>
       <c r="E15" s="3">
-        <v>79000</v>
+        <v>88100</v>
       </c>
       <c r="F15" s="3">
-        <v>76200</v>
+        <v>75500</v>
       </c>
       <c r="G15" s="3">
-        <v>86600</v>
+        <v>72800</v>
       </c>
       <c r="H15" s="3">
-        <v>90400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
+        <v>82700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>86300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9874200</v>
+        <v>9709400</v>
       </c>
       <c r="E17" s="3">
-        <v>9971600</v>
+        <v>9430700</v>
       </c>
       <c r="F17" s="3">
-        <v>9205800</v>
+        <v>9523700</v>
       </c>
       <c r="G17" s="3">
-        <v>8549600</v>
+        <v>8792300</v>
       </c>
       <c r="H17" s="3">
-        <v>8197800</v>
+        <v>8165600</v>
       </c>
       <c r="I17" s="3">
-        <v>7642600</v>
+        <v>7829600</v>
       </c>
       <c r="J17" s="3">
+        <v>7299300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6921600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7707900</v>
+        <v>7103300</v>
       </c>
       <c r="E18" s="3">
-        <v>7623700</v>
+        <v>7361700</v>
       </c>
       <c r="F18" s="3">
-        <v>7783000</v>
+        <v>7281300</v>
       </c>
       <c r="G18" s="3">
-        <v>5429400</v>
+        <v>7433400</v>
       </c>
       <c r="H18" s="3">
-        <v>4957300</v>
+        <v>5185500</v>
       </c>
       <c r="I18" s="3">
-        <v>4639500</v>
+        <v>4734700</v>
       </c>
       <c r="J18" s="3">
+        <v>4431100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3521900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31000</v>
+        <v>68000</v>
       </c>
       <c r="E20" s="3">
-        <v>-89600</v>
+        <v>-29600</v>
       </c>
       <c r="F20" s="3">
-        <v>-927800</v>
+        <v>-85500</v>
       </c>
       <c r="G20" s="3">
-        <v>-56200</v>
+        <v>-886100</v>
       </c>
       <c r="H20" s="3">
-        <v>173300</v>
+        <v>-53700</v>
       </c>
       <c r="I20" s="3">
-        <v>-252600</v>
+        <v>165500</v>
       </c>
       <c r="J20" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8178100</v>
+        <v>7762300</v>
       </c>
       <c r="E21" s="3">
-        <v>8037000</v>
+        <v>7811300</v>
       </c>
       <c r="F21" s="3">
-        <v>7321300</v>
+        <v>7676600</v>
       </c>
       <c r="G21" s="3">
-        <v>5914200</v>
+        <v>6992900</v>
       </c>
       <c r="H21" s="3">
-        <v>5571500</v>
+        <v>5649100</v>
       </c>
       <c r="I21" s="3">
-        <v>4811000</v>
+        <v>5321700</v>
       </c>
       <c r="J21" s="3">
+        <v>4595400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3925600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14200</v>
+        <v>12800</v>
       </c>
       <c r="E22" s="3">
-        <v>10200</v>
+        <v>13500</v>
       </c>
       <c r="F22" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="G22" s="3">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="H22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J22" s="3">
         <v>8700</v>
       </c>
-      <c r="I22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>43300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7662700</v>
+        <v>7158400</v>
       </c>
       <c r="E23" s="3">
-        <v>7523900</v>
+        <v>7318600</v>
       </c>
       <c r="F23" s="3">
-        <v>6844700</v>
+        <v>7186000</v>
       </c>
       <c r="G23" s="3">
-        <v>5367100</v>
+        <v>6537200</v>
       </c>
       <c r="H23" s="3">
-        <v>5122000</v>
+        <v>5126000</v>
       </c>
       <c r="I23" s="3">
-        <v>4377700</v>
+        <v>4891900</v>
       </c>
       <c r="J23" s="3">
+        <v>4181100</v>
+      </c>
+      <c r="K23" s="3">
         <v>3451200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1660700</v>
+        <v>1351100</v>
       </c>
       <c r="E24" s="3">
-        <v>1554100</v>
+        <v>1586100</v>
       </c>
       <c r="F24" s="3">
-        <v>1357300</v>
+        <v>1484300</v>
       </c>
       <c r="G24" s="3">
-        <v>1198700</v>
+        <v>1296400</v>
       </c>
       <c r="H24" s="3">
-        <v>1157800</v>
+        <v>1144800</v>
       </c>
       <c r="I24" s="3">
-        <v>1004100</v>
+        <v>1105800</v>
       </c>
       <c r="J24" s="3">
+        <v>959000</v>
+      </c>
+      <c r="K24" s="3">
         <v>760000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6002000</v>
+        <v>5807300</v>
       </c>
       <c r="E26" s="3">
-        <v>5969800</v>
+        <v>5732500</v>
       </c>
       <c r="F26" s="3">
-        <v>5487300</v>
+        <v>5701600</v>
       </c>
       <c r="G26" s="3">
-        <v>4168400</v>
+        <v>5240900</v>
       </c>
       <c r="H26" s="3">
-        <v>3964200</v>
+        <v>3981200</v>
       </c>
       <c r="I26" s="3">
-        <v>3373600</v>
+        <v>3786200</v>
       </c>
       <c r="J26" s="3">
+        <v>3222100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2691200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6002000</v>
+        <v>5807300</v>
       </c>
       <c r="E27" s="3">
-        <v>5969800</v>
+        <v>5732500</v>
       </c>
       <c r="F27" s="3">
-        <v>5487300</v>
+        <v>5701600</v>
       </c>
       <c r="G27" s="3">
-        <v>4168400</v>
+        <v>5240900</v>
       </c>
       <c r="H27" s="3">
-        <v>3964200</v>
+        <v>3981200</v>
       </c>
       <c r="I27" s="3">
-        <v>3373600</v>
+        <v>3786200</v>
       </c>
       <c r="J27" s="3">
+        <v>3222100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2691200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31000</v>
+        <v>-68000</v>
       </c>
       <c r="E32" s="3">
-        <v>89600</v>
+        <v>29600</v>
       </c>
       <c r="F32" s="3">
-        <v>927800</v>
+        <v>85500</v>
       </c>
       <c r="G32" s="3">
-        <v>56200</v>
+        <v>886100</v>
       </c>
       <c r="H32" s="3">
-        <v>-173300</v>
+        <v>53700</v>
       </c>
       <c r="I32" s="3">
-        <v>252600</v>
+        <v>-165500</v>
       </c>
       <c r="J32" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K32" s="3">
         <v>27400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6002000</v>
+        <v>5807300</v>
       </c>
       <c r="E33" s="3">
-        <v>5969800</v>
+        <v>5732500</v>
       </c>
       <c r="F33" s="3">
-        <v>5487300</v>
+        <v>5701600</v>
       </c>
       <c r="G33" s="3">
-        <v>4168400</v>
+        <v>5240900</v>
       </c>
       <c r="H33" s="3">
-        <v>3964200</v>
+        <v>3981200</v>
       </c>
       <c r="I33" s="3">
-        <v>3373600</v>
+        <v>3786200</v>
       </c>
       <c r="J33" s="3">
+        <v>3222100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2691200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6002000</v>
+        <v>5807300</v>
       </c>
       <c r="E35" s="3">
-        <v>5969800</v>
+        <v>5732500</v>
       </c>
       <c r="F35" s="3">
-        <v>5487300</v>
+        <v>5701600</v>
       </c>
       <c r="G35" s="3">
-        <v>4168400</v>
+        <v>5240900</v>
       </c>
       <c r="H35" s="3">
-        <v>3964200</v>
+        <v>3981200</v>
       </c>
       <c r="I35" s="3">
-        <v>3373600</v>
+        <v>3786200</v>
       </c>
       <c r="J35" s="3">
+        <v>3222100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2691200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2967500</v>
+        <v>2351000</v>
       </c>
       <c r="E41" s="3">
-        <v>2942000</v>
+        <v>2834200</v>
       </c>
       <c r="F41" s="3">
-        <v>2663800</v>
+        <v>2809900</v>
       </c>
       <c r="G41" s="3">
-        <v>2266100</v>
+        <v>2544200</v>
       </c>
       <c r="H41" s="3">
-        <v>1688700</v>
+        <v>2164300</v>
       </c>
       <c r="I41" s="3">
-        <v>1818600</v>
+        <v>1612800</v>
       </c>
       <c r="J41" s="3">
+        <v>1736900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2110600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="3">
-        <v>316200</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>557500</v>
+        <v>302000</v>
       </c>
       <c r="G42" s="3">
-        <v>237500</v>
+        <v>532500</v>
       </c>
       <c r="H42" s="3">
-        <v>588900</v>
+        <v>226900</v>
       </c>
       <c r="I42" s="3">
-        <v>716500</v>
+        <v>562400</v>
       </c>
       <c r="J42" s="3">
+        <v>684300</v>
+      </c>
+      <c r="K42" s="3">
         <v>644400</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3453300</v>
+        <v>3733800</v>
       </c>
       <c r="E43" s="3">
-        <v>3559500</v>
+        <v>3298200</v>
       </c>
       <c r="F43" s="3">
-        <v>3402100</v>
+        <v>3399600</v>
       </c>
       <c r="G43" s="3">
-        <v>2798600</v>
+        <v>3249300</v>
       </c>
       <c r="H43" s="3">
-        <v>2425100</v>
+        <v>2672900</v>
       </c>
       <c r="I43" s="3">
-        <v>1864200</v>
+        <v>2316100</v>
       </c>
       <c r="J43" s="3">
+        <v>1780500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1735800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2419900</v>
+        <v>2456000</v>
       </c>
       <c r="E44" s="3">
-        <v>2257400</v>
+        <v>2311200</v>
       </c>
       <c r="F44" s="3">
-        <v>2008200</v>
+        <v>2156000</v>
       </c>
       <c r="G44" s="3">
-        <v>1787700</v>
+        <v>1918000</v>
       </c>
       <c r="H44" s="3">
-        <v>1503600</v>
+        <v>1707400</v>
       </c>
       <c r="I44" s="3">
-        <v>1502200</v>
+        <v>1436000</v>
       </c>
       <c r="J44" s="3">
+        <v>1434700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1484800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>616600</v>
+        <v>339300</v>
       </c>
       <c r="E45" s="3">
-        <v>332600</v>
+        <v>588900</v>
       </c>
       <c r="F45" s="3">
-        <v>47900</v>
+        <v>317700</v>
       </c>
       <c r="G45" s="3">
-        <v>197100</v>
+        <v>45700</v>
       </c>
       <c r="H45" s="3">
-        <v>414100</v>
+        <v>188200</v>
       </c>
       <c r="I45" s="3">
-        <v>420600</v>
+        <v>395500</v>
       </c>
       <c r="J45" s="3">
+        <v>401700</v>
+      </c>
+      <c r="K45" s="3">
         <v>256400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9457200</v>
+        <v>8880100</v>
       </c>
       <c r="E46" s="3">
-        <v>9407800</v>
+        <v>9032400</v>
       </c>
       <c r="F46" s="3">
-        <v>8679600</v>
+        <v>8985200</v>
       </c>
       <c r="G46" s="3">
-        <v>7287000</v>
+        <v>8289700</v>
       </c>
       <c r="H46" s="3">
-        <v>6620300</v>
+        <v>6959700</v>
       </c>
       <c r="I46" s="3">
-        <v>6322100</v>
+        <v>6323000</v>
       </c>
       <c r="J46" s="3">
+        <v>6038100</v>
+      </c>
+      <c r="K46" s="3">
         <v>6232000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>277400</v>
+        <v>266600</v>
       </c>
       <c r="E47" s="3">
-        <v>345800</v>
+        <v>264900</v>
       </c>
       <c r="F47" s="3">
-        <v>338400</v>
+        <v>330300</v>
       </c>
       <c r="G47" s="3">
-        <v>134700</v>
+        <v>323200</v>
       </c>
       <c r="H47" s="3">
-        <v>86700</v>
-      </c>
-      <c r="I47" s="3" t="s">
+        <v>128700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5548200</v>
+        <v>6297900</v>
       </c>
       <c r="E48" s="3">
-        <v>4750500</v>
+        <v>5299000</v>
       </c>
       <c r="F48" s="3">
-        <v>4021000</v>
+        <v>4537100</v>
       </c>
       <c r="G48" s="3">
-        <v>3641800</v>
+        <v>3840400</v>
       </c>
       <c r="H48" s="3">
-        <v>3444400</v>
+        <v>3478300</v>
       </c>
       <c r="I48" s="3">
-        <v>3390500</v>
+        <v>3289700</v>
       </c>
       <c r="J48" s="3">
+        <v>3238200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3294700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>523400</v>
+        <v>773500</v>
       </c>
       <c r="E49" s="3">
-        <v>427200</v>
+        <v>499900</v>
       </c>
       <c r="F49" s="3">
-        <v>339700</v>
+        <v>408000</v>
       </c>
       <c r="G49" s="3">
-        <v>216900</v>
+        <v>324400</v>
       </c>
       <c r="H49" s="3">
-        <v>254200</v>
+        <v>207200</v>
       </c>
       <c r="I49" s="3">
-        <v>235300</v>
+        <v>242800</v>
       </c>
       <c r="J49" s="3">
+        <v>224800</v>
+      </c>
+      <c r="K49" s="3">
         <v>234400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>305500</v>
+        <v>434900</v>
       </c>
       <c r="E52" s="3">
-        <v>422300</v>
+        <v>291800</v>
       </c>
       <c r="F52" s="3">
-        <v>1071300</v>
+        <v>403400</v>
       </c>
       <c r="G52" s="3">
-        <v>849900</v>
+        <v>1023200</v>
       </c>
       <c r="H52" s="3">
-        <v>666000</v>
+        <v>811700</v>
       </c>
       <c r="I52" s="3">
-        <v>389100</v>
+        <v>636100</v>
       </c>
       <c r="J52" s="3">
+        <v>371600</v>
+      </c>
+      <c r="K52" s="3">
         <v>423000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16111700</v>
+        <v>16653000</v>
       </c>
       <c r="E54" s="3">
-        <v>15353600</v>
+        <v>15388100</v>
       </c>
       <c r="F54" s="3">
-        <v>14450100</v>
+        <v>14664000</v>
       </c>
       <c r="G54" s="3">
-        <v>12130300</v>
+        <v>13801100</v>
       </c>
       <c r="H54" s="3">
-        <v>11071700</v>
+        <v>11585500</v>
       </c>
       <c r="I54" s="3">
-        <v>10337000</v>
+        <v>10574500</v>
       </c>
       <c r="J54" s="3">
+        <v>9872700</v>
+      </c>
+      <c r="K54" s="3">
         <v>10184100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,116 +2042,129 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>883100</v>
+        <v>1015700</v>
       </c>
       <c r="E57" s="3">
-        <v>946200</v>
+        <v>843400</v>
       </c>
       <c r="F57" s="3">
-        <v>775600</v>
+        <v>903700</v>
       </c>
       <c r="G57" s="3">
-        <v>779200</v>
+        <v>740700</v>
       </c>
       <c r="H57" s="3">
-        <v>644100</v>
+        <v>744200</v>
       </c>
       <c r="I57" s="3">
-        <v>607400</v>
+        <v>615200</v>
       </c>
       <c r="J57" s="3">
+        <v>580200</v>
+      </c>
+      <c r="K57" s="3">
         <v>518000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>266700</v>
+        <v>77400</v>
       </c>
       <c r="E58" s="3">
-        <v>36000</v>
+        <v>254700</v>
       </c>
       <c r="F58" s="3">
-        <v>168900</v>
+        <v>34400</v>
       </c>
       <c r="G58" s="3">
-        <v>113300</v>
+        <v>161300</v>
       </c>
       <c r="H58" s="3">
-        <v>33800</v>
+        <v>108200</v>
       </c>
       <c r="I58" s="3">
-        <v>78700</v>
+        <v>32300</v>
       </c>
       <c r="J58" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K58" s="3">
         <v>55300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6257400</v>
+        <v>7049900</v>
       </c>
       <c r="E59" s="3">
-        <v>6484700</v>
+        <v>5976300</v>
       </c>
       <c r="F59" s="3">
-        <v>5489400</v>
+        <v>6193400</v>
       </c>
       <c r="G59" s="3">
-        <v>4410500</v>
+        <v>5242800</v>
       </c>
       <c r="H59" s="3">
-        <v>3135300</v>
+        <v>4212400</v>
       </c>
       <c r="I59" s="3">
-        <v>2719900</v>
+        <v>2994500</v>
       </c>
       <c r="J59" s="3">
+        <v>2597700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2697500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7407100</v>
+        <v>8143000</v>
       </c>
       <c r="E60" s="3">
-        <v>7466900</v>
+        <v>7074400</v>
       </c>
       <c r="F60" s="3">
-        <v>6433800</v>
+        <v>7131500</v>
       </c>
       <c r="G60" s="3">
-        <v>5303000</v>
+        <v>6144800</v>
       </c>
       <c r="H60" s="3">
-        <v>3813300</v>
+        <v>5064800</v>
       </c>
       <c r="I60" s="3">
-        <v>3406000</v>
+        <v>3642000</v>
       </c>
       <c r="J60" s="3">
+        <v>3253100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3270800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2010,38 +2187,44 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>79000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>863200</v>
+        <v>716500</v>
       </c>
       <c r="E62" s="3">
-        <v>760900</v>
+        <v>824500</v>
       </c>
       <c r="F62" s="3">
-        <v>622900</v>
+        <v>726700</v>
       </c>
       <c r="G62" s="3">
-        <v>484700</v>
+        <v>594900</v>
       </c>
       <c r="H62" s="3">
-        <v>557700</v>
+        <v>462900</v>
       </c>
       <c r="I62" s="3">
-        <v>535000</v>
+        <v>532700</v>
       </c>
       <c r="J62" s="3">
+        <v>511000</v>
+      </c>
+      <c r="K62" s="3">
         <v>939600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8270300</v>
+        <v>8859500</v>
       </c>
       <c r="E66" s="3">
-        <v>8227800</v>
+        <v>7898900</v>
       </c>
       <c r="F66" s="3">
-        <v>7056700</v>
+        <v>7858300</v>
       </c>
       <c r="G66" s="3">
-        <v>5787700</v>
+        <v>6739700</v>
       </c>
       <c r="H66" s="3">
-        <v>4371000</v>
+        <v>5527700</v>
       </c>
       <c r="I66" s="3">
-        <v>3941100</v>
+        <v>4174600</v>
       </c>
       <c r="J66" s="3">
+        <v>3764100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4289400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7690300</v>
+        <v>8133700</v>
       </c>
       <c r="E72" s="3">
-        <v>7493800</v>
+        <v>7344900</v>
       </c>
       <c r="F72" s="3">
-        <v>7565400</v>
+        <v>7157200</v>
       </c>
       <c r="G72" s="3">
-        <v>6649600</v>
+        <v>7225600</v>
       </c>
       <c r="H72" s="3">
-        <v>6456300</v>
+        <v>6351000</v>
       </c>
       <c r="I72" s="3">
-        <v>6141500</v>
+        <v>6166300</v>
       </c>
       <c r="J72" s="3">
+        <v>5865700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5833800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7841400</v>
+        <v>7793500</v>
       </c>
       <c r="E76" s="3">
-        <v>7125800</v>
+        <v>7489200</v>
       </c>
       <c r="F76" s="3">
-        <v>7393400</v>
+        <v>6805700</v>
       </c>
       <c r="G76" s="3">
-        <v>6342700</v>
+        <v>7061300</v>
       </c>
       <c r="H76" s="3">
-        <v>6700800</v>
+        <v>6057800</v>
       </c>
       <c r="I76" s="3">
-        <v>6395900</v>
+        <v>6399800</v>
       </c>
       <c r="J76" s="3">
+        <v>6108600</v>
+      </c>
+      <c r="K76" s="3">
         <v>5894700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6002000</v>
+        <v>5807300</v>
       </c>
       <c r="E81" s="3">
-        <v>5969800</v>
+        <v>5732500</v>
       </c>
       <c r="F81" s="3">
-        <v>5487300</v>
+        <v>5701600</v>
       </c>
       <c r="G81" s="3">
-        <v>4168400</v>
+        <v>5240900</v>
       </c>
       <c r="H81" s="3">
-        <v>3964200</v>
+        <v>3981200</v>
       </c>
       <c r="I81" s="3">
-        <v>3373600</v>
+        <v>3786200</v>
       </c>
       <c r="J81" s="3">
+        <v>3222100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2691200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500900</v>
+        <v>590100</v>
       </c>
       <c r="E83" s="3">
-        <v>502600</v>
+        <v>478400</v>
       </c>
       <c r="F83" s="3">
-        <v>465800</v>
+        <v>480000</v>
       </c>
       <c r="G83" s="3">
-        <v>540700</v>
+        <v>444900</v>
       </c>
       <c r="H83" s="3">
-        <v>440600</v>
+        <v>516400</v>
       </c>
       <c r="I83" s="3">
-        <v>423900</v>
+        <v>420800</v>
       </c>
       <c r="J83" s="3">
+        <v>404900</v>
+      </c>
+      <c r="K83" s="3">
         <v>430800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6480300</v>
+        <v>6769500</v>
       </c>
       <c r="E89" s="3">
-        <v>7605100</v>
+        <v>6189200</v>
       </c>
       <c r="F89" s="3">
-        <v>6026800</v>
+        <v>7263500</v>
       </c>
       <c r="G89" s="3">
-        <v>4988600</v>
+        <v>5756100</v>
       </c>
       <c r="H89" s="3">
-        <v>4083500</v>
+        <v>4764600</v>
       </c>
       <c r="I89" s="3">
-        <v>3496700</v>
+        <v>3900100</v>
       </c>
       <c r="J89" s="3">
+        <v>3339700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3364500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1361300</v>
+        <v>-1448700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1301300</v>
+        <v>-1146500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1008400</v>
+        <v>-1062600</v>
       </c>
       <c r="G91" s="3">
-        <v>-682400</v>
+        <v>-785400</v>
       </c>
       <c r="H91" s="3">
-        <v>-573600</v>
+        <v>-599900</v>
       </c>
       <c r="I91" s="3">
-        <v>-570100</v>
+        <v>-486800</v>
       </c>
       <c r="J91" s="3">
+        <v>-506900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-524500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1034300</v>
+        <v>-1816100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1068800</v>
+        <v>-987900</v>
       </c>
       <c r="F94" s="3">
-        <v>-959900</v>
+        <v>-1020800</v>
       </c>
       <c r="G94" s="3">
-        <v>-324900</v>
+        <v>-916800</v>
       </c>
       <c r="H94" s="3">
-        <v>-436500</v>
+        <v>-310300</v>
       </c>
       <c r="I94" s="3">
-        <v>-640700</v>
+        <v>-416900</v>
       </c>
       <c r="J94" s="3">
+        <v>-611900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-544500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2966200</v>
+        <v>-2863700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3751100</v>
+        <v>-2833000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2031400</v>
+        <v>-3582600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1867800</v>
+        <v>-1940100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1529200</v>
+        <v>-1783900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1218700</v>
+        <v>-1460600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1163900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-897200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5617800</v>
+        <v>-5189900</v>
       </c>
       <c r="E100" s="3">
-        <v>-6121200</v>
+        <v>-5365500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4738200</v>
+        <v>-5846300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4176600</v>
+        <v>-4525400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3721000</v>
+        <v>-3989000</v>
       </c>
       <c r="I100" s="3">
-        <v>-3170200</v>
+        <v>-3553900</v>
       </c>
       <c r="J100" s="3">
+        <v>-3027800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2644800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33200</v>
+        <v>6600</v>
       </c>
       <c r="E101" s="3">
-        <v>-4100</v>
+        <v>-31700</v>
       </c>
       <c r="F101" s="3">
-        <v>13500</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
-        <v>10700</v>
+        <v>12900</v>
       </c>
       <c r="H101" s="3">
-        <v>-11000</v>
+        <v>10200</v>
       </c>
       <c r="I101" s="3">
-        <v>-1300</v>
+        <v>-10500</v>
       </c>
       <c r="J101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-205100</v>
+        <v>-229900</v>
       </c>
       <c r="E102" s="3">
-        <v>411000</v>
+        <v>-195900</v>
       </c>
       <c r="F102" s="3">
-        <v>342200</v>
+        <v>392500</v>
       </c>
       <c r="G102" s="3">
-        <v>497900</v>
+        <v>326800</v>
       </c>
       <c r="H102" s="3">
-        <v>-85000</v>
+        <v>475500</v>
       </c>
       <c r="I102" s="3">
-        <v>-315400</v>
+        <v>-81200</v>
       </c>
       <c r="J102" s="3">
+        <v>-301300</v>
+      </c>
+      <c r="K102" s="3">
         <v>172700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/NVO_YR_FIN.xlsx
+++ b/Financials/Yearly/NVO_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291C3B5A-DDB0-4AD0-BFB0-5F8D104E5F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="NVO" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>NVO</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,152 +654,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16812700</v>
+        <v>17935900</v>
       </c>
       <c r="E8" s="3">
-        <v>16792400</v>
+        <v>16438000</v>
       </c>
       <c r="F8" s="3">
-        <v>16805000</v>
+        <v>16418200</v>
       </c>
       <c r="G8" s="3">
-        <v>16225700</v>
+        <v>16430500</v>
       </c>
       <c r="H8" s="3">
-        <v>13351100</v>
+        <v>15864200</v>
       </c>
       <c r="I8" s="3">
-        <v>12564200</v>
+        <v>13053600</v>
       </c>
       <c r="J8" s="3">
+        <v>12284200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11730400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10443500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2648500</v>
+        <v>2875000</v>
       </c>
       <c r="E9" s="3">
-        <v>2650800</v>
+        <v>2589500</v>
       </c>
       <c r="F9" s="3">
-        <v>2583300</v>
+        <v>2591700</v>
       </c>
       <c r="G9" s="3">
-        <v>2433700</v>
+        <v>2525700</v>
       </c>
       <c r="H9" s="3">
-        <v>2189300</v>
+        <v>2379500</v>
       </c>
       <c r="I9" s="3">
-        <v>2125800</v>
+        <v>2140500</v>
       </c>
       <c r="J9" s="3">
+        <v>2078400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2024300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1981600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14164100</v>
+        <v>15060900</v>
       </c>
       <c r="E10" s="3">
-        <v>14141600</v>
+        <v>13848500</v>
       </c>
       <c r="F10" s="3">
-        <v>14221700</v>
+        <v>13826500</v>
       </c>
       <c r="G10" s="3">
-        <v>13792000</v>
+        <v>13904800</v>
       </c>
       <c r="H10" s="3">
-        <v>11161800</v>
+        <v>13484700</v>
       </c>
       <c r="I10" s="3">
-        <v>10438400</v>
+        <v>10913100</v>
       </c>
       <c r="J10" s="3">
+        <v>10205800</v>
+      </c>
+      <c r="K10" s="3">
         <v>9706100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8461900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2039800</v>
+        <v>1981000</v>
       </c>
       <c r="E12" s="3">
-        <v>1996200</v>
+        <v>1994400</v>
       </c>
       <c r="F12" s="3">
-        <v>2051100</v>
+        <v>1951700</v>
       </c>
       <c r="G12" s="3">
-        <v>1944800</v>
+        <v>2005400</v>
       </c>
       <c r="H12" s="3">
-        <v>1931300</v>
+        <v>1901500</v>
       </c>
       <c r="I12" s="3">
-        <v>1693900</v>
+        <v>1888200</v>
       </c>
       <c r="J12" s="3">
+        <v>1656100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1638300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1515500</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
-        <v>46900</v>
-      </c>
       <c r="F14" s="3">
-        <v>81500</v>
+        <v>45900</v>
       </c>
       <c r="G14" s="3">
-        <v>-373600</v>
+        <v>79700</v>
       </c>
       <c r="H14" s="3">
-        <v>96100</v>
+        <v>-365300</v>
       </c>
       <c r="I14" s="3">
-        <v>21600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>93900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>192900</v>
+        <v>125800</v>
       </c>
       <c r="E15" s="3">
-        <v>88100</v>
+        <v>188600</v>
       </c>
       <c r="F15" s="3">
-        <v>75500</v>
+        <v>86100</v>
       </c>
       <c r="G15" s="3">
-        <v>72800</v>
+        <v>73800</v>
       </c>
       <c r="H15" s="3">
-        <v>82700</v>
+        <v>71100</v>
       </c>
       <c r="I15" s="3">
-        <v>86300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>80800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>84400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -978,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9709400</v>
+        <v>10221400</v>
       </c>
       <c r="E17" s="3">
-        <v>9430700</v>
+        <v>9493100</v>
       </c>
       <c r="F17" s="3">
-        <v>9523700</v>
+        <v>9220500</v>
       </c>
       <c r="G17" s="3">
-        <v>8792300</v>
+        <v>9311500</v>
       </c>
       <c r="H17" s="3">
-        <v>8165600</v>
+        <v>8596400</v>
       </c>
       <c r="I17" s="3">
-        <v>7829600</v>
+        <v>7983600</v>
       </c>
       <c r="J17" s="3">
+        <v>7655100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7299300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6921600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7103300</v>
+        <v>7714500</v>
       </c>
       <c r="E18" s="3">
-        <v>7361700</v>
+        <v>6945000</v>
       </c>
       <c r="F18" s="3">
-        <v>7281300</v>
+        <v>7197700</v>
       </c>
       <c r="G18" s="3">
-        <v>7433400</v>
+        <v>7119000</v>
       </c>
       <c r="H18" s="3">
-        <v>5185500</v>
+        <v>7267800</v>
       </c>
       <c r="I18" s="3">
-        <v>4734700</v>
+        <v>5070000</v>
       </c>
       <c r="J18" s="3">
+        <v>4629200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4431100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3521900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>68000</v>
+        <v>-529500</v>
       </c>
       <c r="E20" s="3">
-        <v>-29600</v>
+        <v>66400</v>
       </c>
       <c r="F20" s="3">
-        <v>-85500</v>
+        <v>-29000</v>
       </c>
       <c r="G20" s="3">
-        <v>-886100</v>
+        <v>-83600</v>
       </c>
       <c r="H20" s="3">
-        <v>-53700</v>
+        <v>-866400</v>
       </c>
       <c r="I20" s="3">
-        <v>165500</v>
+        <v>-52500</v>
       </c>
       <c r="J20" s="3">
+        <v>161800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-241300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7762300</v>
+        <v>8018300</v>
       </c>
       <c r="E21" s="3">
-        <v>7811300</v>
+        <v>7589100</v>
       </c>
       <c r="F21" s="3">
-        <v>7676600</v>
+        <v>7637100</v>
       </c>
       <c r="G21" s="3">
-        <v>6992900</v>
+        <v>7505400</v>
       </c>
       <c r="H21" s="3">
-        <v>5649100</v>
+        <v>6836900</v>
       </c>
       <c r="I21" s="3">
-        <v>5321700</v>
+        <v>5523100</v>
       </c>
       <c r="J21" s="3">
+        <v>5203000</v>
+      </c>
+      <c r="K21" s="3">
         <v>4595400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3925600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12800</v>
+        <v>48200</v>
       </c>
       <c r="E22" s="3">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="F22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H22" s="3">
         <v>9800</v>
       </c>
-      <c r="G22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5900</v>
-      </c>
       <c r="I22" s="3">
-        <v>8300</v>
+        <v>5700</v>
       </c>
       <c r="J22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7158400</v>
+        <v>7136800</v>
       </c>
       <c r="E23" s="3">
-        <v>7318600</v>
+        <v>6998900</v>
       </c>
       <c r="F23" s="3">
-        <v>7186000</v>
+        <v>7155500</v>
       </c>
       <c r="G23" s="3">
-        <v>6537200</v>
+        <v>7025800</v>
       </c>
       <c r="H23" s="3">
-        <v>5126000</v>
+        <v>6391600</v>
       </c>
       <c r="I23" s="3">
-        <v>4891900</v>
+        <v>5011800</v>
       </c>
       <c r="J23" s="3">
+        <v>4782900</v>
+      </c>
+      <c r="K23" s="3">
         <v>4181100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3451200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1351100</v>
+        <v>1411400</v>
       </c>
       <c r="E24" s="3">
-        <v>1586100</v>
+        <v>1321000</v>
       </c>
       <c r="F24" s="3">
-        <v>1484300</v>
+        <v>1550700</v>
       </c>
       <c r="G24" s="3">
-        <v>1296400</v>
+        <v>1451200</v>
       </c>
       <c r="H24" s="3">
-        <v>1144800</v>
+        <v>1267500</v>
       </c>
       <c r="I24" s="3">
-        <v>1105800</v>
+        <v>1119300</v>
       </c>
       <c r="J24" s="3">
+        <v>1081100</v>
+      </c>
+      <c r="K24" s="3">
         <v>959000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>760000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5807300</v>
+        <v>5725400</v>
       </c>
       <c r="E26" s="3">
-        <v>5732500</v>
+        <v>5677900</v>
       </c>
       <c r="F26" s="3">
-        <v>5701600</v>
+        <v>5604700</v>
       </c>
       <c r="G26" s="3">
-        <v>5240900</v>
+        <v>5574600</v>
       </c>
       <c r="H26" s="3">
-        <v>3981200</v>
+        <v>5124100</v>
       </c>
       <c r="I26" s="3">
-        <v>3786200</v>
+        <v>3892400</v>
       </c>
       <c r="J26" s="3">
+        <v>3701800</v>
+      </c>
+      <c r="K26" s="3">
         <v>3222100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2691200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5807300</v>
+        <v>5725400</v>
       </c>
       <c r="E27" s="3">
-        <v>5732500</v>
+        <v>5677900</v>
       </c>
       <c r="F27" s="3">
-        <v>5701600</v>
+        <v>5604700</v>
       </c>
       <c r="G27" s="3">
-        <v>5240900</v>
+        <v>5574600</v>
       </c>
       <c r="H27" s="3">
-        <v>3981200</v>
+        <v>5124100</v>
       </c>
       <c r="I27" s="3">
-        <v>3786200</v>
+        <v>3892400</v>
       </c>
       <c r="J27" s="3">
+        <v>3701800</v>
+      </c>
+      <c r="K27" s="3">
         <v>3222100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2691200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1321,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1351,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1381,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1411,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-68000</v>
+        <v>529500</v>
       </c>
       <c r="E32" s="3">
-        <v>29600</v>
+        <v>-66400</v>
       </c>
       <c r="F32" s="3">
-        <v>85500</v>
+        <v>29000</v>
       </c>
       <c r="G32" s="3">
-        <v>886100</v>
+        <v>83600</v>
       </c>
       <c r="H32" s="3">
-        <v>53700</v>
+        <v>866400</v>
       </c>
       <c r="I32" s="3">
-        <v>-165500</v>
+        <v>52500</v>
       </c>
       <c r="J32" s="3">
+        <v>-161800</v>
+      </c>
+      <c r="K32" s="3">
         <v>241300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5807300</v>
+        <v>5725400</v>
       </c>
       <c r="E33" s="3">
-        <v>5732500</v>
+        <v>5677900</v>
       </c>
       <c r="F33" s="3">
-        <v>5701600</v>
+        <v>5604700</v>
       </c>
       <c r="G33" s="3">
-        <v>5240900</v>
+        <v>5574600</v>
       </c>
       <c r="H33" s="3">
-        <v>3981200</v>
+        <v>5124100</v>
       </c>
       <c r="I33" s="3">
-        <v>3786200</v>
+        <v>3892400</v>
       </c>
       <c r="J33" s="3">
+        <v>3701800</v>
+      </c>
+      <c r="K33" s="3">
         <v>3222100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2691200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1501,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5807300</v>
+        <v>5725400</v>
       </c>
       <c r="E35" s="3">
-        <v>5732500</v>
+        <v>5677900</v>
       </c>
       <c r="F35" s="3">
-        <v>5701600</v>
+        <v>5604700</v>
       </c>
       <c r="G35" s="3">
-        <v>5240900</v>
+        <v>5574600</v>
       </c>
       <c r="H35" s="3">
-        <v>3981200</v>
+        <v>5124100</v>
       </c>
       <c r="I35" s="3">
-        <v>3786200</v>
+        <v>3892400</v>
       </c>
       <c r="J35" s="3">
+        <v>3701800</v>
+      </c>
+      <c r="K35" s="3">
         <v>3222100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2691200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1581,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1595,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2351000</v>
+        <v>2199900</v>
       </c>
       <c r="E41" s="3">
-        <v>2834200</v>
+        <v>2298600</v>
       </c>
       <c r="F41" s="3">
-        <v>2809900</v>
+        <v>2771100</v>
       </c>
       <c r="G41" s="3">
-        <v>2544200</v>
+        <v>2747200</v>
       </c>
       <c r="H41" s="3">
-        <v>2164300</v>
+        <v>2487500</v>
       </c>
       <c r="I41" s="3">
-        <v>1612800</v>
+        <v>2116100</v>
       </c>
       <c r="J41" s="3">
+        <v>1576900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1736900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2110600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="3">
-        <v>302000</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>532500</v>
+        <v>295300</v>
       </c>
       <c r="H42" s="3">
-        <v>226900</v>
+        <v>520600</v>
       </c>
       <c r="I42" s="3">
-        <v>562400</v>
+        <v>221800</v>
       </c>
       <c r="J42" s="3">
+        <v>549900</v>
+      </c>
+      <c r="K42" s="3">
         <v>684300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>644400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3733800</v>
+        <v>4285100</v>
       </c>
       <c r="E43" s="3">
-        <v>3298200</v>
+        <v>3650600</v>
       </c>
       <c r="F43" s="3">
-        <v>3399600</v>
+        <v>3224700</v>
       </c>
       <c r="G43" s="3">
-        <v>3249300</v>
+        <v>3323900</v>
       </c>
       <c r="H43" s="3">
-        <v>2672900</v>
+        <v>3176900</v>
       </c>
       <c r="I43" s="3">
-        <v>2316100</v>
+        <v>2613300</v>
       </c>
       <c r="J43" s="3">
+        <v>2264500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1780500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1735800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2456000</v>
+        <v>2593100</v>
       </c>
       <c r="E44" s="3">
-        <v>2311200</v>
+        <v>2401200</v>
       </c>
       <c r="F44" s="3">
-        <v>2156000</v>
+        <v>2259700</v>
       </c>
       <c r="G44" s="3">
-        <v>1918000</v>
+        <v>2108000</v>
       </c>
       <c r="H44" s="3">
-        <v>1707400</v>
+        <v>1875300</v>
       </c>
       <c r="I44" s="3">
-        <v>1436000</v>
+        <v>1669400</v>
       </c>
       <c r="J44" s="3">
+        <v>1404000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1434700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1484800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>339300</v>
+        <v>102500</v>
       </c>
       <c r="E45" s="3">
-        <v>588900</v>
+        <v>331800</v>
       </c>
       <c r="F45" s="3">
-        <v>317700</v>
+        <v>575800</v>
       </c>
       <c r="G45" s="3">
-        <v>45700</v>
+        <v>310600</v>
       </c>
       <c r="H45" s="3">
-        <v>188200</v>
+        <v>44700</v>
       </c>
       <c r="I45" s="3">
-        <v>395500</v>
+        <v>184000</v>
       </c>
       <c r="J45" s="3">
+        <v>386700</v>
+      </c>
+      <c r="K45" s="3">
         <v>401700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>256400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8880100</v>
+        <v>9180400</v>
       </c>
       <c r="E46" s="3">
-        <v>9032400</v>
+        <v>8682300</v>
       </c>
       <c r="F46" s="3">
-        <v>8985200</v>
+        <v>8831200</v>
       </c>
       <c r="G46" s="3">
-        <v>8289700</v>
+        <v>8785000</v>
       </c>
       <c r="H46" s="3">
-        <v>6959700</v>
+        <v>8105000</v>
       </c>
       <c r="I46" s="3">
-        <v>6323000</v>
+        <v>6804600</v>
       </c>
       <c r="J46" s="3">
+        <v>6182100</v>
+      </c>
+      <c r="K46" s="3">
         <v>6038100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6232000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>266600</v>
+        <v>389400</v>
       </c>
       <c r="E47" s="3">
-        <v>264900</v>
+        <v>260600</v>
       </c>
       <c r="F47" s="3">
-        <v>330300</v>
+        <v>259000</v>
       </c>
       <c r="G47" s="3">
-        <v>323200</v>
+        <v>322900</v>
       </c>
       <c r="H47" s="3">
-        <v>128700</v>
+        <v>316000</v>
       </c>
       <c r="I47" s="3">
-        <v>82800</v>
-      </c>
-      <c r="J47" s="3" t="s">
+        <v>125800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6297900</v>
+        <v>7430500</v>
       </c>
       <c r="E48" s="3">
-        <v>5299000</v>
+        <v>6157600</v>
       </c>
       <c r="F48" s="3">
-        <v>4537100</v>
+        <v>5181000</v>
       </c>
       <c r="G48" s="3">
-        <v>3840400</v>
+        <v>4436000</v>
       </c>
       <c r="H48" s="3">
-        <v>3478300</v>
+        <v>3754900</v>
       </c>
       <c r="I48" s="3">
-        <v>3289700</v>
+        <v>3400800</v>
       </c>
       <c r="J48" s="3">
+        <v>3216400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3238200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3294700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>773500</v>
+        <v>857700</v>
       </c>
       <c r="E49" s="3">
-        <v>499900</v>
+        <v>756300</v>
       </c>
       <c r="F49" s="3">
-        <v>408000</v>
+        <v>488700</v>
       </c>
       <c r="G49" s="3">
-        <v>324400</v>
+        <v>398900</v>
       </c>
       <c r="H49" s="3">
-        <v>207200</v>
+        <v>317200</v>
       </c>
       <c r="I49" s="3">
-        <v>242800</v>
+        <v>202600</v>
       </c>
       <c r="J49" s="3">
+        <v>237400</v>
+      </c>
+      <c r="K49" s="3">
         <v>224800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>234400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1894,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1924,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>434900</v>
+        <v>605700</v>
       </c>
       <c r="E52" s="3">
-        <v>291800</v>
+        <v>425200</v>
       </c>
       <c r="F52" s="3">
-        <v>403400</v>
+        <v>285300</v>
       </c>
       <c r="G52" s="3">
-        <v>1023200</v>
+        <v>394400</v>
       </c>
       <c r="H52" s="3">
-        <v>811700</v>
+        <v>1000400</v>
       </c>
       <c r="I52" s="3">
-        <v>636100</v>
+        <v>793600</v>
       </c>
       <c r="J52" s="3">
+        <v>621900</v>
+      </c>
+      <c r="K52" s="3">
         <v>371600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>423000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1984,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16653000</v>
+        <v>18463700</v>
       </c>
       <c r="E54" s="3">
-        <v>15388100</v>
+        <v>16281900</v>
       </c>
       <c r="F54" s="3">
-        <v>14664000</v>
+        <v>15045200</v>
       </c>
       <c r="G54" s="3">
-        <v>13801100</v>
+        <v>14337300</v>
       </c>
       <c r="H54" s="3">
-        <v>11585500</v>
+        <v>13493500</v>
       </c>
       <c r="I54" s="3">
-        <v>10574500</v>
+        <v>11327300</v>
       </c>
       <c r="J54" s="3">
+        <v>10338800</v>
+      </c>
+      <c r="K54" s="3">
         <v>9872700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10184100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2029,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2043,133 +2137,146 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1015700</v>
+        <v>934600</v>
       </c>
       <c r="E57" s="3">
-        <v>843400</v>
+        <v>993100</v>
       </c>
       <c r="F57" s="3">
-        <v>903700</v>
+        <v>824600</v>
       </c>
       <c r="G57" s="3">
-        <v>740700</v>
+        <v>883600</v>
       </c>
       <c r="H57" s="3">
-        <v>744200</v>
+        <v>724200</v>
       </c>
       <c r="I57" s="3">
-        <v>615200</v>
+        <v>727600</v>
       </c>
       <c r="J57" s="3">
+        <v>601500</v>
+      </c>
+      <c r="K57" s="3">
         <v>580200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>518000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>77400</v>
+        <v>216700</v>
       </c>
       <c r="E58" s="3">
-        <v>254700</v>
+        <v>75700</v>
       </c>
       <c r="F58" s="3">
-        <v>34400</v>
+        <v>249000</v>
       </c>
       <c r="G58" s="3">
-        <v>161300</v>
+        <v>33700</v>
       </c>
       <c r="H58" s="3">
-        <v>108200</v>
+        <v>157700</v>
       </c>
       <c r="I58" s="3">
-        <v>32300</v>
+        <v>105800</v>
       </c>
       <c r="J58" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K58" s="3">
         <v>75200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7049900</v>
+        <v>7518700</v>
       </c>
       <c r="E59" s="3">
-        <v>5976300</v>
+        <v>6892800</v>
       </c>
       <c r="F59" s="3">
-        <v>6193400</v>
+        <v>5843100</v>
       </c>
       <c r="G59" s="3">
-        <v>5242800</v>
+        <v>6055400</v>
       </c>
       <c r="H59" s="3">
-        <v>4212400</v>
+        <v>5126000</v>
       </c>
       <c r="I59" s="3">
-        <v>2994500</v>
+        <v>4118500</v>
       </c>
       <c r="J59" s="3">
+        <v>2927700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2597700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2697500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8143000</v>
+        <v>8669900</v>
       </c>
       <c r="E60" s="3">
-        <v>7074400</v>
+        <v>7961600</v>
       </c>
       <c r="F60" s="3">
-        <v>7131500</v>
+        <v>6916800</v>
       </c>
       <c r="G60" s="3">
-        <v>6144800</v>
+        <v>6972600</v>
       </c>
       <c r="H60" s="3">
-        <v>5064800</v>
+        <v>6007900</v>
       </c>
       <c r="I60" s="3">
-        <v>3642000</v>
+        <v>4951900</v>
       </c>
       <c r="J60" s="3">
+        <v>3560800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3253100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3270800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>442300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2190,41 +2297,47 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>79000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>716500</v>
+        <v>885900</v>
       </c>
       <c r="E62" s="3">
-        <v>824500</v>
+        <v>700600</v>
       </c>
       <c r="F62" s="3">
-        <v>726700</v>
+        <v>806100</v>
       </c>
       <c r="G62" s="3">
-        <v>594900</v>
+        <v>710500</v>
       </c>
       <c r="H62" s="3">
-        <v>462900</v>
+        <v>581600</v>
       </c>
       <c r="I62" s="3">
-        <v>532700</v>
+        <v>452600</v>
       </c>
       <c r="J62" s="3">
+        <v>520800</v>
+      </c>
+      <c r="K62" s="3">
         <v>511000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>939600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2252,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2312,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8859500</v>
+        <v>9998100</v>
       </c>
       <c r="E66" s="3">
-        <v>7898900</v>
+        <v>8662100</v>
       </c>
       <c r="F66" s="3">
-        <v>7858300</v>
+        <v>7722900</v>
       </c>
       <c r="G66" s="3">
-        <v>6739700</v>
+        <v>7683200</v>
       </c>
       <c r="H66" s="3">
-        <v>5527700</v>
+        <v>6589600</v>
       </c>
       <c r="I66" s="3">
-        <v>4174600</v>
+        <v>5404500</v>
       </c>
       <c r="J66" s="3">
+        <v>4081600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3764100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4289400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2357,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2386,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2416,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2446,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2476,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8133700</v>
+        <v>8568200</v>
       </c>
       <c r="E72" s="3">
-        <v>7344900</v>
+        <v>7952500</v>
       </c>
       <c r="F72" s="3">
-        <v>7157200</v>
+        <v>7181200</v>
       </c>
       <c r="G72" s="3">
-        <v>7225600</v>
+        <v>6997800</v>
       </c>
       <c r="H72" s="3">
-        <v>6351000</v>
+        <v>7064600</v>
       </c>
       <c r="I72" s="3">
-        <v>6166300</v>
+        <v>6209400</v>
       </c>
       <c r="J72" s="3">
+        <v>6028900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5865700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5833800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2536,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2566,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2596,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7793500</v>
+        <v>8465600</v>
       </c>
       <c r="E76" s="3">
-        <v>7489200</v>
+        <v>7619800</v>
       </c>
       <c r="F76" s="3">
-        <v>6805700</v>
+        <v>7322300</v>
       </c>
       <c r="G76" s="3">
-        <v>7061300</v>
+        <v>6654100</v>
       </c>
       <c r="H76" s="3">
-        <v>6057800</v>
+        <v>6904000</v>
       </c>
       <c r="I76" s="3">
-        <v>6399800</v>
+        <v>5922800</v>
       </c>
       <c r="J76" s="3">
+        <v>6257200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6108600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5894700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2656,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5807300</v>
+        <v>5725400</v>
       </c>
       <c r="E81" s="3">
-        <v>5732500</v>
+        <v>5677900</v>
       </c>
       <c r="F81" s="3">
-        <v>5701600</v>
+        <v>5604700</v>
       </c>
       <c r="G81" s="3">
-        <v>5240900</v>
+        <v>5574600</v>
       </c>
       <c r="H81" s="3">
-        <v>3981200</v>
+        <v>5124100</v>
       </c>
       <c r="I81" s="3">
-        <v>3786200</v>
+        <v>3892400</v>
       </c>
       <c r="J81" s="3">
+        <v>3701800</v>
+      </c>
+      <c r="K81" s="3">
         <v>3222100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2691200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2736,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>590100</v>
+        <v>832100</v>
       </c>
       <c r="E83" s="3">
-        <v>478400</v>
+        <v>576900</v>
       </c>
       <c r="F83" s="3">
-        <v>480000</v>
+        <v>467700</v>
       </c>
       <c r="G83" s="3">
-        <v>444900</v>
+        <v>469300</v>
       </c>
       <c r="H83" s="3">
-        <v>516400</v>
+        <v>434900</v>
       </c>
       <c r="I83" s="3">
-        <v>420800</v>
+        <v>504900</v>
       </c>
       <c r="J83" s="3">
+        <v>411400</v>
+      </c>
+      <c r="K83" s="3">
         <v>404900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>430800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2795,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2825,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2855,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2885,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2915,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6769500</v>
+        <v>6876500</v>
       </c>
       <c r="E89" s="3">
-        <v>6189200</v>
+        <v>6618700</v>
       </c>
       <c r="F89" s="3">
-        <v>7263500</v>
+        <v>6051300</v>
       </c>
       <c r="G89" s="3">
-        <v>5756100</v>
+        <v>7101700</v>
       </c>
       <c r="H89" s="3">
-        <v>4764600</v>
+        <v>5627800</v>
       </c>
       <c r="I89" s="3">
-        <v>3900100</v>
+        <v>4658400</v>
       </c>
       <c r="J89" s="3">
+        <v>3813200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3339700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3364500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2960,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1448700</v>
+        <v>-1312900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1146500</v>
+        <v>-1416400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1062600</v>
+        <v>-1120900</v>
       </c>
       <c r="G91" s="3">
-        <v>-785400</v>
+        <v>-1038900</v>
       </c>
       <c r="H91" s="3">
-        <v>-599900</v>
+        <v>-767900</v>
       </c>
       <c r="I91" s="3">
-        <v>-486800</v>
+        <v>-586500</v>
       </c>
       <c r="J91" s="3">
+        <v>-476000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-506900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-524500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3019,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3049,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1816100</v>
+        <v>-1691700</v>
       </c>
       <c r="E94" s="3">
-        <v>-987900</v>
+        <v>-1775600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1020800</v>
+        <v>-965900</v>
       </c>
       <c r="G94" s="3">
-        <v>-916800</v>
+        <v>-998100</v>
       </c>
       <c r="H94" s="3">
-        <v>-310300</v>
+        <v>-896300</v>
       </c>
       <c r="I94" s="3">
-        <v>-416900</v>
+        <v>-303400</v>
       </c>
       <c r="J94" s="3">
+        <v>-407600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-611900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-544500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3094,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2863700</v>
+        <v>-2852900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2833000</v>
+        <v>-2799900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3582600</v>
+        <v>-2769900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1940100</v>
+        <v>-3502800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1783900</v>
+        <v>-1896900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1460600</v>
+        <v>-1744200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1428000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1163900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-897200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3153,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3183,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3213,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5189900</v>
+        <v>-5215800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5365500</v>
+        <v>-5074200</v>
       </c>
       <c r="F100" s="3">
-        <v>-5846300</v>
+        <v>-5245900</v>
       </c>
       <c r="G100" s="3">
-        <v>-4525400</v>
+        <v>-5716000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3989000</v>
+        <v>-4424500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3553900</v>
+        <v>-3900100</v>
       </c>
       <c r="J100" s="3">
+        <v>-3474700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3027800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2644800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6600</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-31700</v>
+        <v>6500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>-31000</v>
       </c>
       <c r="G101" s="3">
-        <v>12900</v>
+        <v>-3800</v>
       </c>
       <c r="H101" s="3">
-        <v>10200</v>
+        <v>12600</v>
       </c>
       <c r="I101" s="3">
-        <v>-10500</v>
+        <v>10000</v>
       </c>
       <c r="J101" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-229900</v>
+        <v>-32000</v>
       </c>
       <c r="E102" s="3">
-        <v>-195900</v>
+        <v>-224700</v>
       </c>
       <c r="F102" s="3">
-        <v>392500</v>
+        <v>-191500</v>
       </c>
       <c r="G102" s="3">
-        <v>326800</v>
+        <v>383800</v>
       </c>
       <c r="H102" s="3">
-        <v>475500</v>
+        <v>319600</v>
       </c>
       <c r="I102" s="3">
-        <v>-81200</v>
+        <v>464900</v>
       </c>
       <c r="J102" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-301300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>172700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
